--- a/team_specific_matrix/Bethel (IN)_A.xlsx
+++ b/team_specific_matrix/Bethel (IN)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
